--- a/src/main/resources/filesCSV/Muscles.xlsx
+++ b/src/main/resources/filesCSV/Muscles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcolesnic\IdeaProjects\FitnessProj\TrainingWeb\src\main\resources\filesCSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D60ED4F-4F23-4354-9029-97A596389F18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFA70DF-A0AF-4D7A-9424-ECC5E51C74F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,9 +126,6 @@
     <t>Широчайшие мышцы спины</t>
   </si>
   <si>
-    <t>Ромбовидный мускул</t>
-  </si>
-  <si>
     <t>Малая круглая мышца</t>
   </si>
   <si>
@@ -214,6 +211,9 @@
   </si>
   <si>
     <t>Большая ягодичная мышца</t>
+  </si>
+  <si>
+    <t>Ромбовидная мышца</t>
   </si>
 </sst>
 </file>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,7 +786,7 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="4"/>
@@ -812,7 +812,7 @@
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="4"/>
@@ -836,7 +836,7 @@
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="4"/>
@@ -858,7 +858,7 @@
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="4"/>
@@ -1025,7 +1025,7 @@
         <v>19</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21">
@@ -1054,7 +1054,7 @@
         <v>20</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22">
@@ -1083,7 +1083,7 @@
         <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23">
@@ -1279,7 +1279,7 @@
     </row>
     <row r="33" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F33" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G33" s="4"/>
       <c r="J33" s="5" t="s">
@@ -1318,21 +1318,21 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F35" s="2"/>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J35" s="2"/>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N35" s="2"/>
       <c r="Q35" s="4"/>
@@ -1342,21 +1342,21 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F36" s="3"/>
       <c r="H36">
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J36" s="3"/>
       <c r="L36">
         <v>2</v>
       </c>
       <c r="M36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N36" s="3"/>
       <c r="Q36" s="4"/>
@@ -1366,21 +1366,21 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F37" s="3"/>
       <c r="H37">
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J37" s="3"/>
       <c r="L37">
         <v>3</v>
       </c>
       <c r="M37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N37" s="3"/>
       <c r="Q37" s="4"/>
@@ -1395,7 +1395,7 @@
         <v>4</v>
       </c>
       <c r="I38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J38" s="3"/>
       <c r="L38">
@@ -1415,7 +1415,7 @@
         <v>5</v>
       </c>
       <c r="I39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J39" s="3"/>
       <c r="L39">
@@ -1435,7 +1435,7 @@
         <v>6</v>
       </c>
       <c r="I40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J40" s="3"/>
       <c r="L40">
@@ -1455,7 +1455,7 @@
         <v>7</v>
       </c>
       <c r="I41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J41" s="3"/>
       <c r="L41">
@@ -1475,7 +1475,7 @@
         <v>8</v>
       </c>
       <c r="I42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J42" s="3"/>
       <c r="L42">

--- a/src/main/resources/filesCSV/Muscles.xlsx
+++ b/src/main/resources/filesCSV/Muscles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcolesnic\IdeaProjects\FitnessProj\TrainingWeb\src\main\resources\filesCSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFA70DF-A0AF-4D7A-9424-ECC5E51C74F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161EA647-1CC8-44CB-BC66-C066ECFEAB0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="105">
   <si>
     <t>Название</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>Ноги(Ягодицы)</t>
-  </si>
-  <si>
-    <t>Мышцы бицепса состоят из длинной и короткой головки, соединяясь вместе образуют брюшко, которое крепиться к бугристости лучевой кости сухожилием. Функция бицепсов – обеспечивать сгибание плеча в плечевом суставе, а предплечья в локтевом.</t>
   </si>
   <si>
     <r>
@@ -167,43 +164,6 @@
     </r>
   </si>
   <si>
-    <t>Портняжная</t>
-  </si>
-  <si>
-    <t>Четырехглавая (квадрицепс)</t>
-  </si>
-  <si>
-    <t>Прямая</t>
-  </si>
-  <si>
-    <t>Латеральная широкая</t>
-  </si>
-  <si>
-    <t>Медиальная широкая</t>
-  </si>
-  <si>
-    <t>Промежуточная широкая</t>
-  </si>
-  <si>
-    <t>Двуглавая (бицепс бедра)</t>
-  </si>
-  <si>
-    <t>Длинная приводящая</t>
-  </si>
-  <si>
-    <t>Длинная малоберцовая мышца</t>
-  </si>
-  <si>
-    <t>Передняя большеберцовая мышца</t>
-  </si>
-  <si>
-    <t>Медиальная головка икроножной мышцы</t>
-  </si>
-  <si>
-    <t>Трицепс имеет три головки, поэтому его называют трехглавой мышцей плеча, крепиться к локтевому отростку локтевой кости с помощью плоского широкого сухожилия.
-Обеспечивает разгибания предплечья, а также приведение руки к туловищу и движение рукой назад.</t>
-  </si>
-  <si>
     <t>Малая ягодичная мышца</t>
   </si>
   <si>
@@ -214,13 +174,465 @@
   </si>
   <si>
     <t>Ромбовидная мышца</t>
+  </si>
+  <si>
+    <t>Функция</t>
+  </si>
+  <si>
+    <t>Большая грудная мышца, m. pectoralis major, начинается от медиальной половины ключицы , от передней поверхности грудины и хрящей ребер и, наконец, от передней стенки прямой мышцы живота; прикрепляется к гребню большого бугорка плечевой кости. Латеральный край мышцы прилегает к краю дельтовидной мышцы плеча, отделяясь от нее бороздкой, которая расширяется кверху под ключицей, обусловливая здесь небольшую подключичную ямку.</t>
+  </si>
+  <si>
+    <t>приводит руку к туловищу, поворачивает ее внутрь: (пронирует); ключичная часть сгибает руку. При фиксированных верхних конечностях может приподнимать ребра с грудиной и этим содействовать вдыханию, участвует в подтягивании туловища при лазании.</t>
+  </si>
+  <si>
+    <t>Малая грудная мышца, m. pectoralis minor, лежит под большой грудной. Она начинается четырьмя зубцами от II до V ребра и прикрепляется к клювовидному отростку лопатки.</t>
+  </si>
+  <si>
+    <t>оттягивает при своем сокращении лопатку вперед и вниз. При фиксированных руках действует как вдыхательная мышца.</t>
+  </si>
+  <si>
+    <t>Передняя зубчатая мышца, m. serratus anterior, залегает на поверхности грудной клетки в боковой области груди. Мышца начинается обычно 9 зубцами от девяти верхних ребер и прикрепляется к медиальному краю лопатки.</t>
+  </si>
+  <si>
+    <t>вместе с ромбовидной мышцей, прикрепляющейся также к медиальному краю лопатки, образует широкую мышечную петлю, которая охватывает туловище и прижимает к нему лопатку.</t>
+  </si>
+  <si>
+    <r>
+      <t>Наружные межреберные мышцы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mm. intercostales externi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) расширяют межреберные промежутки: поднимают ребро над каждым межреберьем. Это также приводит к расширению плевральных полостей и, следовательно, вдоху. Данные мышцы увеличивают сагиттальный и особенно поперечный диаметр грудной клетки за счет подъема грудины и передних частей ребер. Функциональные взаимоотношения с внутренними межреберными мышцами и диафрагмой описаны в разделе, посвященном последней.</t>
+    </r>
+  </si>
+  <si>
+    <t>Трапециевидная мышца, m. trapezius, плоская, широкая мышца, занимает поверхностное положение в задней области шеи и в верхнем отделе спины. Трапециевидная мышца имеет форму треугольника, основанием обращенного к позвоночному столбу, а вершиной - к акромиону лопатки; трапециевидные мышцы обеих сторон вместе имеют форму трапеции. Сухожильные пучки мышцы короткие и лишь в области нижних шейных и верхних грудных позвонков, достигая большой длины, образуют ромбовидной формы сухожильную площадку. Пучки мышцы сходятся радиально к лопатке.</t>
+  </si>
+  <si>
+    <t>сокращаясь всеми пучками, мышца приближает лопатку к позвоночному столбу; сокращаясь верхними пучками, поднимает лопатку, а нижними - опускает ее. При фиксации лопатки обе трапециевидные мышцы тянут голову назад, а при одностороннем сокращении мышца наклоняет голову в соответствующую сторону.</t>
+  </si>
+  <si>
+    <t>Широчайшая мышца спины, m. latissimus dorsi, занимает всю нижнюю часть спины, подходя своей верхней частью под нижний конец трапециевидной мышцы. Она берет начало от остистых отростков последних четырех (а иногда пяти и шести) грудных, всех поясничных и крестцовых позвонков, а также от задней части подвздошного гребня и, наконец, четырьмя зубцами от четырех нижних ребер. Эти зубцы чередуются с задними зубцами наружной косой мышцы живота. От мест своего начала волокна широчайшей мышцы спины идут кверху и латерально в сходящемся направлении и прикрепляются к гребню малого бугорка плечевой кости (crista tuberculi minoris humeri).</t>
+  </si>
+  <si>
+    <t>приводит плечо к туловищу и тянет верхнюю конечность назад к срединной линии, вращая ее внутрь (пронация). При укрепленной верхней конечности приближает к ней туловище или принимает участие в смещении нижних ребер вверх при дыхательном движении, являясь таким образом вспомогательной дыхательной мышцей.</t>
+  </si>
+  <si>
+    <t>Ромбовидная мышца, m. rhomboideus, лежит под трапецией, имея форму ромбической пластинки. Начинается от остистых отростков двух нижних шейных и четырех верхних грудных позвонков и прикрепляется к медиальному краю лопатки.</t>
+  </si>
+  <si>
+    <t>при сокращении ромбовидная мышца притягивает лопатку к позвоночнику и кверху. Фиксирует медиальный край лопатки к грудной клетке.</t>
+  </si>
+  <si>
+    <t>Большая круглая мышца (m. teres major) прикрепляется непосредственно под широчайшей мышцей спины. Приводит плечо и ротирует его кнут­ри. Она также разгибает плечо из положения сгибания, возвращая его в ней­тральное положение.</t>
+  </si>
+  <si>
+    <r>
+      <t>Малая круглая мышца</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m. teres minor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) приводит к наружной ротации плеча, а при отведенном плече также приводит его. Как часть вращательной манжеты участвует в стабилизации плечевого сустава.</t>
+    </r>
+  </si>
+  <si>
+    <t>сгибает плечо в плечевом суставе; сгибает предплечье в локтевом суставе; повернутое внутрь предплечье поворачивает кнаружи (супинация);</t>
+  </si>
+  <si>
+    <t>разгибает предплечье в локтевом суставе; длинная головка действует также на плечевой сустав, участвуя в разгибании и приведении плеча к туловищу.</t>
+  </si>
+  <si>
+    <t>Трехглавая мышца плеча (трицепс), m.triceps brachii, - сильно развитая мышца, занимает заднюю поверхность плеча на всем протяжении; соответственно названию имеет три головки. Латеральная и медиальная головки начинаются на плечевой кости, а длинная - на лопатке.</t>
+  </si>
+  <si>
+    <t>Двуглавая мышца плеча или бицепс, m.biceps brachii, имеет две головки - короткую и длинную.
+Короткая головка начинается вместе с клювовидно-плечевой мышцей от верхушки клювовидного отростка лопатки. Длинная головка берет начало от надсуставного бугорка лопатки сухожилием, которое пронизывает сверху вниз капсулу плечевого сустава и выходит на плечо, где лежит в межбугорковой борозде. На уровне плеча обе головки соединяются в общее брюшко веретенообразной формы, которое переходит в сухожилие, прикрепляющееся к бугристости лучевой кости.</t>
+  </si>
+  <si>
+    <t>Прямая мышца живота, m. rectus abdominis, образует рельефность пресса. Она лежит на обеих сторонах сбоку от средней линии и состоит из продольных мышечных пучков, идущих в вертикальном направлении. Она начинается от передней поверхности реберных хрящей и от мечевидного отростка грудины, затем, постепенно суживаясь, направляется вниз и прикрепляется крепким сухожилием к лобковой кости. На своем протяжении мышца прерывается идущими поперечно (3—4) сухожильными перемычками.</t>
+  </si>
+  <si>
+    <t>скручивание туловища в поясничном отделе позвоночника.</t>
+  </si>
+  <si>
+    <t>Наружная косая мышца живота, m. obliquus externus abdominis — поверхностная мышца живота. Она начинается на боковой поверхности грудной клетки от восьми нижних ребер восемью зубцами, причем волокна идут сверху вниз и медиально. Волокна наружной косой мышцы представляют как бы продолжение наружных межреберных мышц и идут в таком же направлении косо сверху вниз и сзади наперед. Остальные волокна мышцы переходят в широкий апоневроз.</t>
+  </si>
+  <si>
+    <r>
+      <t>Внутренняя косая мышца живота</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m. obliquus interims abdominis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) поворачивает грудную клетку в противоположную сторону относительно таза и при двустороннем сокращении сгибает позвоночник. Вместе с другими плоскими мышцами передней брюшной стенки участвует в ее напряжении, например, при родах, мочеиспускании и дефекации. При двустороннем сокращении ее краниальная часть сокращает нижнюю апертуру грудной клетки, усиливая выдох (данная функция здесь не рассматривается).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Поперечная мышца живота</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m. transversus abdominis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) поворачивает грудную клетку в ту же сторону относительно таза. При двустороннем сокращении ее краниальная часть сокращает нижнюю апертуру грудной клетки, усиливая выдох. Однако данная мышца играет особенно важную роль в повышении внутрибрюшного давления при напряжении брюшной стенки (например, при родах, мочеиспускании и дефекации) и при выпячивании брюшной стенки. Дыхательная функция данной мышцы здесь не рассматривается (см. поперечную мышцу груди). В ряде случаев эта мышца отсутствует, это можно определить с помощью УЗИ и МРТ.</t>
+    </r>
+  </si>
+  <si>
+    <t>Большая ягодичная мышца, m. Gluteus maximus, занимает практически весь объем ягодиц, поэтому именно от неё в большей степени зависит их форма. Начало: ягодичная поверхность подвздошной кости, дорсальные поверхности крестца и копчика; прикрепление: ягодичная бугристость бедренной кости, подвздошно-большеберцовый тракт.</t>
+  </si>
+  <si>
+    <t>обеспечивать движение тазобедренного сустава, то есть распрямлять туловище, отводить ногу назад.</t>
+  </si>
+  <si>
+    <t>Они отвечают за поднятие ноги в сторону, а также обеспечивают подтяжку ягодиц</t>
+  </si>
+  <si>
+    <r>
+      <t>Средняя ягодичная мышца</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m. gluteus medius</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) отводит ногу в тазобедренном суставе. При ходьбе средняя ягодичная мышца на опорной ноге сокращается, что останавливает наклон таза в сторону переносимой ноги и даже несколько наклоняет его в сторону опорной ноги и таким образом облегчает отрыв стопы от земли. В то же время данная мышца вызывает внутреннюю ротацию, что при сокращении мышцы на опорной ноге приводит к очень незначительному сгибанию переносимой ноги.</t>
+    </r>
+  </si>
+  <si>
+    <t>Малая ягодичная мышца (m. gluteus minimus) отводит ногу в тазобедренном суставе. При ходьбе малая ягодичная мышца на опорной ноге сокращается, что останавливает наклон таза в сторону переносимой ноги, несколько наклоняет его в сторону опорной ноги и выводит кпереди переносимую ногу за счет ротации.</t>
+  </si>
+  <si>
+    <t>Прямая мышца бедра, m. rectus femoris, двуперистая мышца, самая длинная из четырех головок четырехглавой мышцы; располагается на передней поверхности бедра. Мышца начинается сухожилием от ости подвздошной кости и у вертлужной впадины. Направляясь вниз, мышца расширяется и доходит до средины бедра, а затем, постепенно суживаясь, переходит в мощное сухожилие. Последнее срастается с основанием надколенной чашки и, проходя по передней поверхности ее, достигает бугра большеберцовой кости, где и заканчивается.</t>
+  </si>
+  <si>
+    <t>Ноги (Квадрицепс)</t>
+  </si>
+  <si>
+    <t>Прямая мышца бедра,</t>
+  </si>
+  <si>
+    <t>Внутренняя широкая мышца,</t>
+  </si>
+  <si>
+    <t>Наружная широкая мышца</t>
+  </si>
+  <si>
+    <t>Средняя широкая мышца,</t>
+  </si>
+  <si>
+    <t>четырехглавая мышца бедра разгибает ногу в колене; кроме того, m. rectus femoris, являясь двухсуставной мышцей, принимает участие в сгибании бедра и в наклоне таза вперед</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Внутренняя широкая мышца, m. vastus medialis - плоская, широкая, толстая мышца. Располагается на переднемедиальнои поверхности бедра. Ее передний край несколько прикрывает прямая мышца бедра; внутри она граничит с медиальной группой мышц бедра. Внутреннюю широкую мышцу частично покрывает проходящая косо портняжная мышца. Мышечные пучки, окутывая переднемедиальную поверхность бедренной кости, направлены косо вниз и вперед. В нижнем отделе бедра мышечная часть переходит в сухожильную, которая присоединяется к сухожилию прямой мышцы.</t>
+  </si>
+  <si>
+    <t>Наружная широкая мышца, m. vastus lateralis - плоская, широкая, толстая мышца, лежащая на передненаружной поверхности бедра. Ее латеральную поверхность частично покрывает мышца, напрягающая широкую фасцию; передний край прикрыт прямой мышцей бедра. Мышца начинается от вертела бедренной кости. Мышечные пучки, направляясь косо вниз и вперед, покрывают переднелатеральную поверхность бедренной кости и в нижнем отделе бедра переходят в сухожилие, вплетается в сухожилие прямой мышцы.</t>
+  </si>
+  <si>
+    <t>Средняя широкая мышца, m. vastus intermedius - самая слабая из четырех головок четырехглавой мышцы бедра; имеет вид плоской широкой, сравнительно тонкой мышцы. Мышца располагается на передней поверхности бедренной кости, спереди покрыта прямой мышцей бедра. Мышца начинается от межвертельной линии и передней поверхности бедренной кости в пределах верхних трех четвертей. Пучки ее направлены вертикально вниз и переходят в плоское сухожилие. В нижнем отделе бедра сухожилие присоединяется к сухожилию прямой мышцы бедра.</t>
+  </si>
+  <si>
+    <t>двуглавая мышца бедра</t>
+  </si>
+  <si>
+    <t>Длинная головка прикрепляется к бугорку седалищной кости, короткая - к латеральной губе</t>
+  </si>
+  <si>
+    <t>Эта мышца помогает в выпрямлении ноги, сгибает голень и вращает ее в согнутом коленном суставе наружу.</t>
+  </si>
+  <si>
+    <t>полусухожильная мышца</t>
+  </si>
+  <si>
+    <t>Прикрепляется сбоку от шероховатости большеберцовой кости на гусиной лапке.</t>
+  </si>
+  <si>
+    <t>Отвечает за выпрямление бедра опорной ноги, сгибает голеностопный сустав и вращает согнутую голень внутр</t>
+  </si>
+  <si>
+    <t>полуперепончатая мышца</t>
+  </si>
+  <si>
+    <t>Крепится к медиальному суставному мыщелку большеберцовой кости</t>
+  </si>
+  <si>
+    <t>По функциональности совпадает с полусухожильной</t>
+  </si>
+  <si>
+    <t>Икроножная мышца m. gastrocnemius, начинается от бедренной кости сзади над обоими мыщелками двумя головками, которые переходят в сухожилие, и продолжается в массивное ахиллово сухожилие, прикрепляющееся к задней поверхности бугра пяточной кости.</t>
+  </si>
+  <si>
+    <t>Икроножная мышца</t>
+  </si>
+  <si>
+    <t>Камбаловидная мышца, m. soleus, толстая и мясистая. Лежит под икроножной мышцей, занимая большое протяжение на костях голени. Линия ее начала находится на головке и на верхней трети задней поверхности малоберцовой кости и спускается по большеберцовой кости почти до границы средней трети голени с нижней. Сливается с ахилловым сухожилием. Задняя группа мышц голени</t>
+  </si>
+  <si>
+    <t>Камбаловидная мышца</t>
+  </si>
+  <si>
+    <t>Подошвенная мышца,</t>
+  </si>
+  <si>
+    <t>Подошвенная мышца, m. plantaris, берет начало над латеральным мыщелком бедра и от капсулы коленного сустава, вскоре переходит в очень длинное и тонкое сухожилие и прикрепляется у пяточного бугра. Эта мышца может отсутствовать.</t>
+  </si>
+  <si>
+    <t>производит сгибание в голеностопном суставе как при свободной ноге, так и при опоре на конец стопы. Так как линия тяги мышцы проходит медиально к оси подтаранного сустава, то она делает еще приведение стопы и супинацию. При стоянии triceps surae (в особенности m. soleus) препятствует опрокидыванию тела кпереди в голеностопном суставе. Мышце приходится работать преимущественно при отягощении массой всего тела, а потому она отличается силой и имеет большой физиологический поперечник; m. gastrocnemius как двусуставная мышца может также сгибать колено при укрепленной голени и стопе.</t>
+  </si>
+  <si>
+    <t>Грудино-ключично-сосцевидная мышца (m. sternocleidomastoideus) наклоняет голову и шейный отдел позвоночника в ту же сторону и при одностороннем сокращении ротирует их в противоположную сторону. При двустороннем сокращении ротация отсутствует. Сгибание и разгибание шеи зависит от исходного положения головы. Если голова согнута, эта мышца еще больше сгибает голову и шейный отдел позвоночника; если голова разогнута, мышца еще больше разгибает голову и шейный отдел позвоночника. Действие этой мышцы на грудину и ключицу незначительно.</t>
+  </si>
+  <si>
+    <t>Передняя дельтовидная мышца – поверхностная мышца передней части плеча.</t>
+  </si>
+  <si>
+    <t>Мышца участвует в подъеме руки вперед и вбок. При сведении рук эта мышца незначительно работает и в данном случае является вспомогательной мышцей для грудных мышц.</t>
+  </si>
+  <si>
+    <t>Задняя дельтовидная мышца, она же латеральная мышца – поверхностная мышца задней части плеча. Данная мышца самая трудная в развитии из всех трех дельтовидных мышц. Однако ее надо развивать, потому что неразвитая задняя дельтовидная мышца очень сильно выделяется на общем фоне развитых плеч и создает впалость в задней части плеч, что сильно портит фигуру атлета.</t>
+  </si>
+  <si>
+    <t>Основная функция задней дельтовидной мышцы – это отведение рук назад. Так же она участвует при разведении рук в стороны, с учетом что большие пальцы рук направлены вниз и даже вниз и назад, а мизинцы рук направлены вверх и вперед – т.е. необходимо максимально выкрутить руку.</t>
+  </si>
+  <si>
+    <t>Основная функция мышцы – это отведение руки в сторону, при этом ей помогает немного передняя дельтовидная мышца. Стоит отметить – чем больше большой палец руки повернут вверх при разведении рук – тем меньше работает средняя дельтовидная мышца и больше работает передняя дельтовидная.</t>
+  </si>
+  <si>
+    <t>Средняя дельтовидная мышца, она же латеральная мышца – поверхностная мышца средней части плеча. Именно данная мышца визуально увеличивает плечи и задает их округлость.</t>
+  </si>
+  <si>
+    <r>
+      <t>(лат. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Musculus subclavius</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) — небольшая продолговатая мышца. Располагается ниже ключицы и параллельно ей. Прикрыта большой грудной мышцей. Начинается от хрящевой части I ребра. Направляясь латерально и вверх прикрепляется к нижней поверхности акромиальной части ключицы</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[2]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Подкрепляет грудиноключичное сочленение. Оттягивает ключицу вниз и медиально</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[3]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. При неподвижном поясе верхней конечности поднимает первое ребро, являясь вспомогательной дыхательной мышцей</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[2]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +642,30 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -257,7 +693,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -356,11 +792,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -375,11 +823,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -660,26 +1112,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" customWidth="1"/>
     <col min="2" max="2" width="3" customWidth="1"/>
     <col min="3" max="3" width="2.33203125" customWidth="1"/>
     <col min="4" max="4" width="4.6640625" customWidth="1"/>
     <col min="5" max="5" width="24.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" customWidth="1"/>
     <col min="9" max="9" width="25.21875" customWidth="1"/>
-    <col min="10" max="10" width="16.77734375" customWidth="1"/>
-    <col min="11" max="11" width="4.5546875" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
     <col min="12" max="12" width="6.44140625" customWidth="1"/>
     <col min="13" max="13" width="31.109375" customWidth="1"/>
     <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="10.21875" customWidth="1"/>
     <col min="17" max="17" width="14.21875" customWidth="1"/>
     <col min="18" max="18" width="18.77734375" customWidth="1"/>
   </cols>
@@ -705,19 +1158,26 @@
       <c r="F5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="I5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="4"/>
+      <c r="K5" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="M5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>1</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="Q5" s="4"/>
     </row>
@@ -728,16 +1188,24 @@
       <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="4"/>
+      <c r="J6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" t="s">
+        <v>48</v>
+      </c>
       <c r="L6">
         <v>1</v>
       </c>
@@ -745,6 +1213,7 @@
         <v>13</v>
       </c>
       <c r="N6" s="2"/>
+      <c r="O6" s="1"/>
       <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="3:17" x14ac:dyDescent="0.3">
@@ -754,16 +1223,24 @@
       <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
+      <c r="F7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
       <c r="H7">
         <v>2</v>
       </c>
       <c r="I7" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="4"/>
+      <c r="J7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="L7">
         <v>2</v>
       </c>
@@ -771,6 +1248,7 @@
         <v>14</v>
       </c>
       <c r="N7" s="3"/>
+      <c r="O7" s="1"/>
       <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="3:17" x14ac:dyDescent="0.3">
@@ -780,47 +1258,65 @@
       <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
+      <c r="F8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
       <c r="H8">
         <v>3</v>
       </c>
       <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="4"/>
+      <c r="K8" t="s">
+        <v>52</v>
+      </c>
       <c r="L8">
         <v>3</v>
       </c>
       <c r="M8" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="3"/>
+      <c r="N8" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" s="1"/>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:17" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D9">
         <v>4</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>104</v>
+      </c>
       <c r="H9">
         <v>4</v>
       </c>
       <c r="I9" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="4"/>
+      <c r="J9" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="13"/>
       <c r="L9">
         <v>4</v>
       </c>
       <c r="M9" s="1"/>
-      <c r="N9" s="3"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="1"/>
       <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="3:17" x14ac:dyDescent="0.3">
@@ -830,21 +1326,26 @@
       <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
+      <c r="F10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="1"/>
       <c r="H10">
         <v>5</v>
       </c>
       <c r="I10" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="4"/>
+      <c r="J10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="1"/>
       <c r="L10">
         <v>5</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="3"/>
+      <c r="O10" s="1"/>
       <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="3:17" x14ac:dyDescent="0.3">
@@ -852,21 +1353,22 @@
         <v>6</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="1"/>
       <c r="H11">
         <v>6</v>
       </c>
       <c r="I11" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="4"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="1"/>
       <c r="L11">
         <v>6</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="3"/>
+      <c r="O11" s="1"/>
       <c r="Q11" s="4"/>
     </row>
     <row r="12" spans="3:17" x14ac:dyDescent="0.3">
@@ -875,18 +1377,19 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="1"/>
       <c r="H12">
         <v>7</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="4"/>
+      <c r="K12" s="1"/>
       <c r="L12">
         <v>7</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="3"/>
+      <c r="O12" s="1"/>
       <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="3:17" x14ac:dyDescent="0.3">
@@ -895,18 +1398,19 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="1"/>
       <c r="H13">
         <v>8</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="4"/>
+      <c r="K13" s="1"/>
       <c r="L13">
         <v>8</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="3"/>
+      <c r="O13" s="1"/>
       <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="3:17" x14ac:dyDescent="0.3">
@@ -915,18 +1419,19 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="1"/>
       <c r="H14">
         <v>9</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="4"/>
+      <c r="K14" s="1"/>
       <c r="L14">
         <v>9</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="3"/>
+      <c r="O14" s="1"/>
       <c r="Q14" s="4"/>
     </row>
     <row r="15" spans="3:17" x14ac:dyDescent="0.3">
@@ -935,18 +1440,19 @@
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="1"/>
       <c r="H15">
         <v>10</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="4"/>
+      <c r="K15" s="1"/>
       <c r="L15">
         <v>10</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10"/>
+      <c r="O15" s="1"/>
       <c r="Q15" s="4"/>
     </row>
     <row r="16" spans="3:17" x14ac:dyDescent="0.3">
@@ -1000,23 +1506,30 @@
       <c r="F20" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="I20" s="6" t="s">
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K20" s="4"/>
+      <c r="K20" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="M20" s="6" t="s">
         <v>0</v>
       </c>
       <c r="N20" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="O20" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="Q20" s="4"/>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="4"/>
       <c r="D21">
         <v>1</v>
@@ -1024,25 +1537,36 @@
       <c r="E21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="4"/>
+      <c r="F21" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" t="s">
+        <v>55</v>
+      </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="s">
         <v>22</v>
       </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="4"/>
+      <c r="J21" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" t="s">
+        <v>60</v>
+      </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21" t="s">
         <v>16</v>
       </c>
-      <c r="N21" s="2"/>
+      <c r="N21" t="s">
+        <v>97</v>
+      </c>
+      <c r="O21" t="s">
+        <v>98</v>
+      </c>
       <c r="Q21" s="4"/>
     </row>
     <row r="22" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1053,25 +1577,34 @@
       <c r="E22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="4"/>
+      <c r="F22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" t="s">
+        <v>56</v>
+      </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="4"/>
+      <c r="J22" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" s="1"/>
       <c r="L22">
         <v>2</v>
       </c>
       <c r="M22" t="s">
         <v>17</v>
       </c>
-      <c r="N22" s="3"/>
+      <c r="N22" t="s">
+        <v>102</v>
+      </c>
+      <c r="O22" t="s">
+        <v>101</v>
+      </c>
       <c r="Q22" s="4"/>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.3">
@@ -1083,24 +1616,31 @@
         <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="G23" s="13"/>
       <c r="H23">
         <v>3</v>
       </c>
       <c r="I23" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="4"/>
+      <c r="J23" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K23" s="1"/>
       <c r="L23">
         <v>3</v>
       </c>
       <c r="M23" t="s">
         <v>18</v>
       </c>
-      <c r="N23" s="3"/>
+      <c r="N23" t="s">
+        <v>99</v>
+      </c>
+      <c r="O23" t="s">
+        <v>100</v>
+      </c>
       <c r="Q23" s="4"/>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.3">
@@ -1109,20 +1649,23 @@
         <v>4</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="G24" s="4"/>
+      <c r="G24" s="1"/>
       <c r="H24">
         <v>4</v>
       </c>
       <c r="I24" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="4"/>
+      <c r="J24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" s="1"/>
       <c r="L24">
         <v>4</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="3"/>
+      <c r="O24" s="1"/>
       <c r="Q24" s="4"/>
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.3">
@@ -1131,19 +1674,19 @@
         <v>5</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="4"/>
+      <c r="G25" s="1"/>
       <c r="H25">
         <v>5</v>
       </c>
       <c r="I25" s="1"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="4"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="1"/>
       <c r="L25">
         <v>5</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="3"/>
+      <c r="O25" s="1"/>
       <c r="Q25" s="4"/>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.3">
@@ -1153,18 +1696,19 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="4"/>
+      <c r="G26" s="1"/>
       <c r="H26">
         <v>6</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="4"/>
+      <c r="K26" s="1"/>
       <c r="L26">
         <v>6</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="3"/>
+      <c r="O26" s="1"/>
       <c r="Q26" s="4"/>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.3">
@@ -1172,19 +1716,19 @@
         <v>7</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
+      <c r="G27" s="1"/>
       <c r="H27">
         <v>7</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="4"/>
+      <c r="K27" s="1"/>
       <c r="L27">
         <v>7</v>
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="3"/>
+      <c r="O27" s="1"/>
       <c r="Q27" s="4"/>
     </row>
     <row r="28" spans="3:17" x14ac:dyDescent="0.3">
@@ -1193,18 +1737,19 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
+      <c r="G28" s="1"/>
       <c r="H28">
         <v>8</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="4"/>
+      <c r="K28" s="1"/>
       <c r="L28">
         <v>8</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="3"/>
+      <c r="O28" s="1"/>
       <c r="Q28" s="4"/>
     </row>
     <row r="29" spans="3:17" x14ac:dyDescent="0.3">
@@ -1213,18 +1758,19 @@
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="4"/>
+      <c r="G29" s="1"/>
       <c r="H29">
         <v>9</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="4"/>
+      <c r="K29" s="1"/>
       <c r="L29">
         <v>9</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="3"/>
+      <c r="O29" s="1"/>
       <c r="Q29" s="4"/>
     </row>
     <row r="30" spans="3:17" x14ac:dyDescent="0.3">
@@ -1233,18 +1779,19 @@
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="4"/>
+      <c r="G30" s="1"/>
       <c r="H30">
         <v>10</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="10"/>
-      <c r="K30" s="4"/>
+      <c r="K30" s="1"/>
       <c r="L30">
         <v>10</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10"/>
+      <c r="O30" s="1"/>
       <c r="Q30" s="4"/>
     </row>
     <row r="31" spans="3:17" x14ac:dyDescent="0.3">
@@ -1299,17 +1846,26 @@
       <c r="F34" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="G34" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="I34" s="6" t="s">
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="K34" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="M34" s="6" t="s">
         <v>0</v>
       </c>
       <c r="N34" s="7" t="s">
         <v>1</v>
+      </c>
+      <c r="O34" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="Q34" s="4"/>
     </row>
@@ -1318,23 +1874,38 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" t="s">
+        <v>65</v>
+      </c>
       <c r="H35">
         <v>1</v>
       </c>
-      <c r="I35" t="s">
-        <v>36</v>
-      </c>
-      <c r="J35" s="2"/>
+      <c r="I35" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J35" t="s">
+        <v>81</v>
+      </c>
+      <c r="K35" t="s">
+        <v>82</v>
+      </c>
       <c r="L35">
         <v>1</v>
       </c>
-      <c r="M35" t="s">
-        <v>44</v>
-      </c>
-      <c r="N35" s="2"/>
+      <c r="M35" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="O35" t="s">
+        <v>95</v>
+      </c>
       <c r="Q35" s="4"/>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.3">
@@ -1342,23 +1913,38 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>49</v>
-      </c>
-      <c r="F36" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" t="s">
+        <v>66</v>
+      </c>
       <c r="H36">
         <v>2</v>
       </c>
-      <c r="I36" t="s">
-        <v>37</v>
-      </c>
-      <c r="J36" s="3"/>
+      <c r="I36" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J36" t="s">
+        <v>84</v>
+      </c>
+      <c r="K36" t="s">
+        <v>85</v>
+      </c>
       <c r="L36">
         <v>2</v>
       </c>
       <c r="M36" t="s">
-        <v>45</v>
-      </c>
-      <c r="N36" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="N36" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="O36" t="s">
+        <v>95</v>
+      </c>
       <c r="Q36" s="4"/>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.3">
@@ -1366,23 +1952,38 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
-      </c>
-      <c r="F37" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" t="s">
+        <v>66</v>
+      </c>
       <c r="H37">
         <v>3</v>
       </c>
-      <c r="I37" t="s">
-        <v>38</v>
-      </c>
-      <c r="J37" s="3"/>
+      <c r="I37" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J37" t="s">
+        <v>87</v>
+      </c>
+      <c r="K37" t="s">
+        <v>88</v>
+      </c>
       <c r="L37">
         <v>3</v>
       </c>
-      <c r="M37" t="s">
-        <v>46</v>
-      </c>
-      <c r="N37" s="3"/>
+      <c r="M37" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="O37" t="s">
+        <v>95</v>
+      </c>
       <c r="Q37" s="4"/>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.3">
@@ -1390,19 +1991,19 @@
         <v>4</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="3"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="1"/>
       <c r="H38">
         <v>4</v>
       </c>
-      <c r="I38" t="s">
-        <v>39</v>
-      </c>
       <c r="J38" s="3"/>
+      <c r="K38" s="1"/>
       <c r="L38">
         <v>4</v>
       </c>
       <c r="M38" s="1"/>
-      <c r="N38" s="3"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
       <c r="Q38" s="4"/>
     </row>
     <row r="39" spans="4:17" x14ac:dyDescent="0.3">
@@ -1411,18 +2012,18 @@
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="3"/>
+      <c r="G39" s="1"/>
       <c r="H39">
         <v>5</v>
       </c>
-      <c r="I39" t="s">
-        <v>40</v>
-      </c>
       <c r="J39" s="3"/>
+      <c r="K39" s="1"/>
       <c r="L39">
         <v>5</v>
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="3"/>
+      <c r="O39" s="1"/>
       <c r="Q39" s="4"/>
     </row>
     <row r="40" spans="4:17" x14ac:dyDescent="0.3">
@@ -1431,18 +2032,18 @@
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="3"/>
+      <c r="G40" s="1"/>
       <c r="H40">
         <v>6</v>
       </c>
-      <c r="I40" t="s">
-        <v>41</v>
-      </c>
       <c r="J40" s="3"/>
+      <c r="K40" s="1"/>
       <c r="L40">
         <v>6</v>
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="3"/>
+      <c r="O40" s="1"/>
       <c r="Q40" s="4"/>
     </row>
     <row r="41" spans="4:17" x14ac:dyDescent="0.3">
@@ -1451,18 +2052,18 @@
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="3"/>
+      <c r="G41" s="1"/>
       <c r="H41">
         <v>7</v>
       </c>
-      <c r="I41" t="s">
-        <v>42</v>
-      </c>
       <c r="J41" s="3"/>
+      <c r="K41" s="1"/>
       <c r="L41">
         <v>7</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="3"/>
+      <c r="O41" s="1"/>
       <c r="Q41" s="4"/>
     </row>
     <row r="42" spans="4:17" x14ac:dyDescent="0.3">
@@ -1471,18 +2072,18 @@
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="3"/>
+      <c r="G42" s="1"/>
       <c r="H42">
         <v>8</v>
       </c>
-      <c r="I42" t="s">
-        <v>43</v>
-      </c>
       <c r="J42" s="3"/>
+      <c r="K42" s="1"/>
       <c r="L42">
         <v>8</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="3"/>
+      <c r="O42" s="1"/>
       <c r="Q42" s="4"/>
     </row>
     <row r="43" spans="4:17" x14ac:dyDescent="0.3">
@@ -1491,16 +2092,19 @@
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="3"/>
+      <c r="G43" s="1"/>
       <c r="H43">
         <v>9</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="3"/>
+      <c r="K43" s="1"/>
       <c r="L43">
         <v>9</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="3"/>
+      <c r="O43" s="1"/>
       <c r="Q43" s="4"/>
     </row>
     <row r="44" spans="4:17" x14ac:dyDescent="0.3">
@@ -1509,16 +2113,19 @@
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="10"/>
+      <c r="G44" s="1"/>
       <c r="H44">
         <v>10</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="10"/>
+      <c r="K44" s="1"/>
       <c r="L44">
         <v>10</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10"/>
+      <c r="O44" s="1"/>
       <c r="Q44" s="4"/>
     </row>
     <row r="45" spans="4:17" x14ac:dyDescent="0.3">
@@ -1551,10 +2158,10 @@
       <c r="O46" s="4"/>
       <c r="Q46" s="4"/>
     </row>
-    <row r="47" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
+    <row r="47" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F47" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
@@ -1566,11 +2173,16 @@
       <c r="O47" s="4"/>
       <c r="Q47" s="4"/>
     </row>
-    <row r="48" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+    <row r="48" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E48" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -1582,11 +2194,21 @@
       <c r="Q48" s="4"/>
     </row>
     <row r="49" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" t="s">
+        <v>75</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -1597,11 +2219,21 @@
       <c r="Q49" s="4"/>
     </row>
     <row r="50" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G50" t="s">
+        <v>75</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -1612,11 +2244,21 @@
       <c r="Q50" s="4"/>
     </row>
     <row r="51" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G51" t="s">
+        <v>75</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -1627,11 +2269,21 @@
       <c r="Q51" s="4"/>
     </row>
     <row r="52" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G52" t="s">
+        <v>75</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>76</v>
+      </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -1640,22 +2292,53 @@
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
     </row>
+    <row r="53" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="F53" s="13"/>
+    </row>
     <row r="54" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="G54" s="4"/>
+      <c r="D54">
+        <v>6</v>
+      </c>
+      <c r="F54" s="3"/>
+      <c r="G54" s="13"/>
     </row>
     <row r="55" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="G55" s="4"/>
+      <c r="D55">
+        <v>7</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="1"/>
     </row>
     <row r="56" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="G56" s="4"/>
+      <c r="D56">
+        <v>8</v>
+      </c>
+      <c r="F56" s="3"/>
+      <c r="G56" s="1"/>
     </row>
     <row r="57" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="G57" s="4"/>
+      <c r="D57">
+        <v>9</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="1"/>
     </row>
     <row r="58" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="G58" s="4"/>
+      <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="1"/>
     </row>
     <row r="59" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
       <c r="G59" s="4"/>
     </row>
     <row r="60" spans="4:17" x14ac:dyDescent="0.3">
@@ -1740,7 +2423,40 @@
       <c r="G76" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1" tooltip="Большая грудная мышца" display="http://sportwiki.to/%D0%91%D0%BE%D0%BB%D1%8C%D1%88%D0%B0%D1%8F_%D0%B3%D1%80%D1%83%D0%B4%D0%BD%D0%B0%D1%8F_%D0%BC%D1%8B%D1%88%D1%86%D0%B0" xr:uid="{CD7C453A-598B-4DCE-ACF7-F278EF7EE930}"/>
+    <hyperlink ref="G6" r:id="rId2" tooltip="Пронация" display="http://sportwiki.to/%D0%9F%D1%80%D0%BE%D0%BD%D0%B0%D1%86%D0%B8%D1%8F" xr:uid="{8D8A09A6-FB6D-42D8-A1DB-E6A4C9270D89}"/>
+    <hyperlink ref="F7" r:id="rId3" tooltip="Малая грудная мышца" display="http://sportwiki.to/%D0%9C%D0%B0%D0%BB%D0%B0%D1%8F_%D0%B3%D1%80%D1%83%D0%B4%D0%BD%D0%B0%D1%8F_%D0%BC%D1%8B%D1%88%D1%86%D0%B0" xr:uid="{6B326928-18D2-4B17-8D00-2BDE06882100}"/>
+    <hyperlink ref="F8" r:id="rId4" tooltip="Передняя зубчатая мышца" display="http://sportwiki.to/%D0%9F%D0%B5%D1%80%D0%B5%D0%B4%D0%BD%D1%8F%D1%8F_%D0%B7%D1%83%D0%B1%D1%87%D0%B0%D1%82%D0%B0%D1%8F_%D0%BC%D1%8B%D1%88%D1%86%D0%B0" xr:uid="{43595543-3D38-4266-B1CE-87A50D39B83B}"/>
+    <hyperlink ref="J6" r:id="rId5" tooltip="Трапециевидная мышца" display="http://sportwiki.to/%D0%A2%D1%80%D0%B0%D0%BF%D0%B5%D1%86%D0%B8%D0%B5%D0%B2%D0%B8%D0%B4%D0%BD%D0%B0%D1%8F_%D0%BC%D1%8B%D1%88%D1%86%D0%B0" xr:uid="{0DF57436-2FD6-4E06-A056-A41D9EE75E8A}"/>
+    <hyperlink ref="J7" r:id="rId6" tooltip="Широчайшая мышца спины" display="http://sportwiki.to/%D0%A8%D0%B8%D1%80%D0%BE%D1%87%D0%B0%D0%B9%D1%88%D0%B0%D1%8F_%D0%BC%D1%8B%D1%88%D1%86%D0%B0_%D1%81%D0%BF%D0%B8%D0%BD%D1%8B" xr:uid="{322E8D2A-D4EE-4F44-AEE9-30A09D95ECAA}"/>
+    <hyperlink ref="K7" r:id="rId7" tooltip="Пронация" display="http://sportwiki.to/%D0%9F%D1%80%D0%BE%D0%BD%D0%B0%D1%86%D0%B8%D1%8F" xr:uid="{3721B10E-8515-4720-BBD7-04AA2E43DCB3}"/>
+    <hyperlink ref="J8" r:id="rId8" tooltip="Ромбовидные мышцы" display="http://sportwiki.to/%D0%A0%D0%BE%D0%BC%D0%B1%D0%BE%D0%B2%D0%B8%D0%B4%D0%BD%D1%8B%D0%B5_%D0%BC%D1%8B%D1%88%D1%86%D1%8B" xr:uid="{3B152E1A-7833-4984-8CAF-DBF0F055C0BE}"/>
+    <hyperlink ref="J9" r:id="rId9" tooltip="Широчайшая мышца спины" display="http://sportwiki.to/%D0%A8%D0%B8%D1%80%D0%BE%D1%87%D0%B0%D0%B9%D1%88%D0%B0%D1%8F_%D0%BC%D1%8B%D1%88%D1%86%D0%B0_%D1%81%D0%BF%D0%B8%D0%BD%D1%8B" xr:uid="{41EE8883-57D9-4017-BC6B-229997B2875F}"/>
+    <hyperlink ref="F22" r:id="rId10" tooltip="Трехглавая мышца плеча" display="http://sportwiki.to/%D0%A2%D1%80%D0%B5%D1%85%D0%B3%D0%BB%D0%B0%D0%B2%D0%B0%D1%8F_%D0%BC%D1%8B%D1%88%D1%86%D0%B0_%D0%BF%D0%BB%D0%B5%D1%87%D0%B0" xr:uid="{6674203A-D55D-48C0-B1DF-77C61CA9933B}"/>
+    <hyperlink ref="J21" r:id="rId11" tooltip="Прямая мышца живота" display="http://sportwiki.to/%D0%9F%D1%80%D1%8F%D0%BC%D0%B0%D1%8F_%D0%BC%D1%8B%D1%88%D1%86%D0%B0_%D0%B6%D0%B8%D0%B2%D0%BE%D1%82%D0%B0" xr:uid="{D22019E5-C8AE-46B4-B915-8116A77C4ECC}"/>
+    <hyperlink ref="J22" r:id="rId12" tooltip="Наружная косая мышца живота" display="http://sportwiki.to/%D0%9D%D0%B0%D1%80%D1%83%D0%B6%D0%BD%D0%B0%D1%8F_%D0%BA%D0%BE%D1%81%D0%B0%D1%8F_%D0%BC%D1%8B%D1%88%D1%86%D0%B0_%D0%B6%D0%B8%D0%B2%D0%BE%D1%82%D0%B0" xr:uid="{C9AFDF62-F4C6-468F-B02F-CAA07A32E2A8}"/>
+    <hyperlink ref="F35" r:id="rId13" tooltip="Большая ягодичная мышца" display="http://sportwiki.to/%D0%91%D0%BE%D0%BB%D1%8C%D1%88%D0%B0%D1%8F_%D1%8F%D0%B3%D0%BE%D0%B4%D0%B8%D1%87%D0%BD%D0%B0%D1%8F_%D0%BC%D1%8B%D1%88%D1%86%D0%B0" xr:uid="{EBDCA725-E364-4DF7-A423-1B4257C4F12A}"/>
+    <hyperlink ref="F37" r:id="rId14" tooltip="Ходьба" display="http://sportwiki.to/%D0%A5%D0%BE%D0%B4%D1%8C%D0%B1%D0%B0" xr:uid="{8D941BA3-C34F-4C8F-B5EA-47F044028ECF}"/>
+    <hyperlink ref="E49" r:id="rId15" tooltip="Прямая мышца бедра" display="http://sportwiki.to/%D0%9F%D1%80%D1%8F%D0%BC%D0%B0%D1%8F_%D0%BC%D1%8B%D1%88%D1%86%D0%B0_%D0%B1%D0%B5%D0%B4%D1%80%D0%B0" xr:uid="{9B11A13A-ECE7-4717-B560-599BA6AFE74D}"/>
+    <hyperlink ref="E50" r:id="rId16" tooltip="Медиальная широкая мышца бедра" display="http://sportwiki.to/%D0%9C%D0%B5%D0%B4%D0%B8%D0%B0%D0%BB%D1%8C%D0%BD%D0%B0%D1%8F_%D1%88%D0%B8%D1%80%D0%BE%D0%BA%D0%B0%D1%8F_%D0%BC%D1%8B%D1%88%D1%86%D0%B0_%D0%B1%D0%B5%D0%B4%D1%80%D0%B0" xr:uid="{77DB90FE-C6A2-4AF8-B3C4-D935BEBFE64D}"/>
+    <hyperlink ref="E51" r:id="rId17" tooltip="Латеральная широкая мышца бедра" display="http://sportwiki.to/%D0%9B%D0%B0%D1%82%D0%B5%D1%80%D0%B0%D0%BB%D1%8C%D0%BD%D0%B0%D1%8F_%D1%88%D0%B8%D1%80%D0%BE%D0%BA%D0%B0%D1%8F_%D0%BC%D1%8B%D1%88%D1%86%D0%B0_%D0%B1%D0%B5%D0%B4%D1%80%D0%B0" xr:uid="{D1035BEC-43E4-4107-AB05-E320F8768241}"/>
+    <hyperlink ref="E52" r:id="rId18" tooltip="Промежуточная широкая мышца бедра" display="http://sportwiki.to/%D0%9F%D1%80%D0%BE%D0%BC%D0%B5%D0%B6%D1%83%D1%82%D0%BE%D1%87%D0%BD%D0%B0%D1%8F_%D1%88%D0%B8%D1%80%D0%BE%D0%BA%D0%B0%D1%8F_%D0%BC%D1%8B%D1%88%D1%86%D0%B0_%D0%B1%D0%B5%D0%B4%D1%80%D0%B0" xr:uid="{C8E04F78-8329-42BA-9E24-F982ABD3FC18}"/>
+    <hyperlink ref="F49" r:id="rId19" tooltip="Прямая мышца бедра" display="http://sportwiki.to/%D0%9F%D1%80%D1%8F%D0%BC%D0%B0%D1%8F_%D0%BC%D1%8B%D1%88%D1%86%D0%B0_%D0%B1%D0%B5%D0%B4%D1%80%D0%B0" xr:uid="{8087CABE-E3A7-4BAF-8929-49234A8D582E}"/>
+    <hyperlink ref="F50" r:id="rId20" tooltip="Медиальная широкая мышца бедра" display="http://sportwiki.to/%D0%9C%D0%B5%D0%B4%D0%B8%D0%B0%D0%BB%D1%8C%D0%BD%D0%B0%D1%8F_%D1%88%D0%B8%D1%80%D0%BE%D0%BA%D0%B0%D1%8F_%D0%BC%D1%8B%D1%88%D1%86%D0%B0_%D0%B1%D0%B5%D0%B4%D1%80%D0%B0" xr:uid="{1DB6DA58-3378-4CFF-86D1-4F6325127B6A}"/>
+    <hyperlink ref="F51" r:id="rId21" tooltip="Латеральная широкая мышца бедра" display="http://sportwiki.to/%D0%9B%D0%B0%D1%82%D0%B5%D1%80%D0%B0%D0%BB%D1%8C%D0%BD%D0%B0%D1%8F_%D1%88%D0%B8%D1%80%D0%BE%D0%BA%D0%B0%D1%8F_%D0%BC%D1%8B%D1%88%D1%86%D0%B0_%D0%B1%D0%B5%D0%B4%D1%80%D0%B0" xr:uid="{65647413-5418-47DB-A27B-49A020DDA7ED}"/>
+    <hyperlink ref="F52" r:id="rId22" tooltip="Промежуточная широкая мышца бедра" display="http://sportwiki.to/%D0%9F%D1%80%D0%BE%D0%BC%D0%B5%D0%B6%D1%83%D1%82%D0%BE%D1%87%D0%BD%D0%B0%D1%8F_%D1%88%D0%B8%D1%80%D0%BE%D0%BA%D0%B0%D1%8F_%D0%BC%D1%8B%D1%88%D1%86%D0%B0_%D0%B1%D0%B5%D0%B4%D1%80%D0%B0" xr:uid="{A31B0B09-69E1-42B3-8385-409C4FB0B684}"/>
+    <hyperlink ref="I35" r:id="rId23" tooltip="Двуглавая мышца бедра" display="http://sportwiki.to/%D0%94%D0%B2%D1%83%D0%B3%D0%BB%D0%B0%D0%B2%D0%B0%D1%8F_%D0%BC%D1%8B%D1%88%D1%86%D0%B0_%D0%B1%D0%B5%D0%B4%D1%80%D0%B0" xr:uid="{507BF840-E4EE-4D87-8E18-CB02ACFCF762}"/>
+    <hyperlink ref="I36" r:id="rId24" tooltip="Полусухожильная мышца" display="http://sportwiki.to/%D0%9F%D0%BE%D0%BB%D1%83%D1%81%D1%83%D1%85%D0%BE%D0%B6%D0%B8%D0%BB%D1%8C%D0%BD%D0%B0%D1%8F_%D0%BC%D1%8B%D1%88%D1%86%D0%B0" xr:uid="{0F377AD0-6828-44C1-A173-2F9C286729CB}"/>
+    <hyperlink ref="I37" r:id="rId25" tooltip="Полуперепончатая мышца" display="http://sportwiki.to/%D0%9F%D0%BE%D0%BB%D1%83%D0%BF%D0%B5%D1%80%D0%B5%D0%BF%D0%BE%D0%BD%D1%87%D0%B0%D1%82%D0%B0%D1%8F_%D0%BC%D1%8B%D1%88%D1%86%D0%B0" xr:uid="{2174D076-04DB-42AA-AFA5-FAB2BC359212}"/>
+    <hyperlink ref="N35" r:id="rId26" tooltip="Икроножная мышца" display="http://sportwiki.to/%D0%98%D0%BA%D1%80%D0%BE%D0%BD%D0%BE%D0%B6%D0%BD%D0%B0%D1%8F_%D0%BC%D1%8B%D1%88%D1%86%D0%B0" xr:uid="{E22BE50A-A765-4F45-B7C7-91875845A423}"/>
+    <hyperlink ref="M35" r:id="rId27" tooltip="Икроножная мышца" display="http://sportwiki.to/%D0%98%D0%BA%D1%80%D0%BE%D0%BD%D0%BE%D0%B6%D0%BD%D0%B0%D1%8F_%D0%BC%D1%8B%D1%88%D1%86%D0%B0" xr:uid="{C51B0C72-60A4-4E5F-B120-111CC51C9AD4}"/>
+    <hyperlink ref="N36" r:id="rId28" tooltip="Камбаловидная мышца" display="http://sportwiki.to/%D0%9A%D0%B0%D0%BC%D0%B1%D0%B0%D0%BB%D0%BE%D0%B2%D0%B8%D0%B4%D0%BD%D0%B0%D1%8F_%D0%BC%D1%8B%D1%88%D1%86%D0%B0" xr:uid="{0FE602AD-20AB-468B-B18A-B15838EC6A9E}"/>
+    <hyperlink ref="M37" r:id="rId29" tooltip="Подошвенная мышца" display="http://sportwiki.to/%D0%9F%D0%BE%D0%B4%D0%BE%D1%88%D0%B2%D0%B5%D0%BD%D0%BD%D0%B0%D1%8F_%D0%BC%D1%8B%D1%88%D1%86%D0%B0" xr:uid="{EE18C17B-00D0-4BA5-8509-D8B7FC494E31}"/>
+    <hyperlink ref="N37" r:id="rId30" tooltip="Подошвенная мышца" display="http://sportwiki.to/%D0%9F%D0%BE%D0%B4%D0%BE%D1%88%D0%B2%D0%B5%D0%BD%D0%BD%D0%B0%D1%8F_%D0%BC%D1%8B%D1%88%D1%86%D0%B0" xr:uid="{6C2F05B9-031A-4E53-BE3C-9427C8FFDEB9}"/>
+    <hyperlink ref="N8" r:id="rId31" tooltip="Анатомия шейного отдела позвоночника" display="http://sportwiki.to/%D0%90%D0%BD%D0%B0%D1%82%D0%BE%D0%BC%D0%B8%D1%8F_%D1%88%D0%B5%D0%B9%D0%BD%D0%BE%D0%B3%D0%BE_%D0%BE%D1%82%D0%B4%D0%B5%D0%BB%D0%B0_%D0%BF%D0%BE%D0%B7%D0%B2%D0%BE%D0%BD%D0%BE%D1%87%D0%BD%D0%B8%D0%BA%D0%B0" xr:uid="{23A2B226-B0D1-4652-96C0-D7DE88E29259}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>
--- a/src/main/resources/filesCSV/Muscles.xlsx
+++ b/src/main/resources/filesCSV/Muscles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcolesnic\IdeaProjects\FitnessProj\TrainingWeb\src\main\resources\filesCSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161EA647-1CC8-44CB-BC66-C066ECFEAB0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7F519C-DC17-453E-8AA0-33475684812A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="118">
   <si>
     <t>Название</t>
   </si>
@@ -468,12 +468,6 @@
     <t>двуглавая мышца бедра</t>
   </si>
   <si>
-    <t>Длинная головка прикрепляется к бугорку седалищной кости, короткая - к латеральной губе</t>
-  </si>
-  <si>
-    <t>Эта мышца помогает в выпрямлении ноги, сгибает голень и вращает ее в согнутом коленном суставе наружу.</t>
-  </si>
-  <si>
     <t>полусухожильная мышца</t>
   </si>
   <si>
@@ -486,9 +480,6 @@
     <t>полуперепончатая мышца</t>
   </si>
   <si>
-    <t>Крепится к медиальному суставному мыщелку большеберцовой кости</t>
-  </si>
-  <si>
     <t>По функциональности совпадает с полусухожильной</t>
   </si>
   <si>
@@ -626,13 +617,962 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>Двуглавая мышца бедра</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (бицепс </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>бедра</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) — длинная </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>мышца</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, проходящая по всей задней части </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>бедра</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Состоит из длинной и короткой головок. Верхним концом длинной головки крепится к седалищному бугру тазовой кости, а нижним — к берцовой кости.</t>
+    </r>
+  </si>
+  <si>
+    <t>При укреплённой голени производят разгибание туловища совместно с большой ягодичной мышцей. Когда колено согнуто, те же мышцы осуществляют вращение голени, сокращаясь по отдельности на той или другой стороне. Двуглавая мышца бедра вращает голень кнаружи</t>
+  </si>
+  <si>
+    <t>Прямая мышца бедра</t>
+  </si>
+  <si>
+    <r>
+      <t>Прямая мышца бедра (лат. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>musculus rectus femoris</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) наиболее длинная из всех головок мышцы. Состоит из двух головок: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>прямая головка</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (лат. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>caput rectum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (A04.7.02.019)) и </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>загнутая головка</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (лат. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>caput reflexum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (A04.7.02.020))</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[3]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Занимает переднюю поверхность бедра. Начинается тонким сухожилием от </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>нижней передней ости</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>надвертлужной борозды</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> подвздошной кости. В самом начале прикрыта мышцей, напрягающей широкую фасцию бедра и портняжной мышцей</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[4]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Направляется вниз и переходит в узкое сухожилие, которое входит в состав общего </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>сухожилия четырёхглавой мышцы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Достигнув большеберцовой кости сухожилие прикрепляется к </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>большеберцовой бугристости</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Ниже надколенника оно называется </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>связкой надколенника</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (лат. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ligamentum patellae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[2]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Медиальная широкая мышца бедра (лат. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>musculus vastus medialis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) занимает переднемедиальную поверхность нижней половины бедра. Мышца берёт начало от </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>медиальной губы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>шероховатой линии</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> бедренной кости и, направляясь вниз, переходит в широкое сухожилие, которое частично вплетается в широкое сухожилие вместе с </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>прямой мышцей бедра</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, а частично прикрепляется к медиальному краю надколенника, образуя </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>медиальную поддерживающую связку надколенника</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Таким образом образующие мышцу пучки направлены косо сверху вниз и изнутри наперёд</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[2]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Медиальная широкая мышца бедра</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Разгибает голень в коленном суставе. Прямая мышца бедра, перекидывающаяся через тазобедренный сустав, принимает участие в сгибании бедра, притягивает бедренную кость к подвздошной кости, способствует удержанию </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>головки бедренной кости</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> внутри </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>вертлужной впадины</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[en]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (лат. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>acetabulum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Полусухожильная мышца располагается ближе к медиальному краю задней поверхности бедра. Наружная её сторона граничит с двуглавой мышцей бедра (лат. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Musculus biceps femoris</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), внутренняя — с полуперепончатой (лат. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Musculus semimembranosus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>). Проксимальный отдел мышцы прикрыт большой ягодичной мышцей</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[2]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Посередине мышца часто прерывается косо идущей сухожильной перемычкой. Начинаясь от </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>седалищного бугра</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ветви седалищной кости она следует вниз, переходит в длинное сухожилие, которое обогнув медиальный надмыщелок бедра, следует к переднемедиальной поверхности большеберцовой кости, прикрепляясь к её бугристости. Часть концевых пучков сухожилия вплетается в фасцию голени</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[2]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.Сухожилие мышцы у места своего прикрепления вместе с сухожилием тонкой и портняжной мышц образует трееугольное, соединяющееся с fascia cruris сухожильное растяжение, так называемую поверхностную гусиную лапку (лат. pes anserinus superficialis)</t>
+    </r>
+  </si>
+  <si>
+    <t>Латеральная широкая мышца бедра</t>
+  </si>
+  <si>
+    <r>
+      <t>Латеральная широкая мышца бедра (лат. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>musculus vastus lateralis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) занимает почти всю переднелатеральную поверхность бедра. Сверху она несколько прикрыта </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>мышцей, напрягающей широкую фасцию</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, а спереди — </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>прямой мышцей бедра</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Мышца начинается от большого вертела, межвертельной линии и латеральной губы шероховатой линии бедра. Направляясь вниз, мышца переходит в широкое сухожилие, которое входит в состав общего сухожилия четырёхглавой мышцы и участвует в образовании латеральной поддерживающей связки надколенника</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[2]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Портня́жная мы́шца</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Сгибает ногу в тазобедренном и коленном суставах: вращает голень внутрь, а бедро — наружу. Тем самым принимает участие в забрасывании ноги за ногу</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[3]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.Участвует в выпрямлении бедра, препятствует выворачиванию бедра внутрь во время приседаний.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Портня́жная мы́шца</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (лат. musculus sartorius) — </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>мышца</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> передней группы </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>бедра</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Является наиболее длинной мышцей человеческого организма.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Начинается от передней верхней подвздошной ости подвздошной кости. Направляется от неё косо вниз. Располагаясь на передней поверхности бедра, мышца спиралеобразно направляется вниз, переходя на его внутреннюю поверхность, а затем, обогнув сзади медиальный надмыщелок, переходит на переднемедиальную поверхность голени.Мышца переходит в плоское сухожилие, которое прикрепляется к бугристости большеберцовой кости, а некоторое число пучков вплетается в фасцию верхнего отдела голени. У места прикрепления мышцы образуются 2—3 подсухожильные сумки портняжной мышцы (лат. bursae subtendineae m. sartorii), которые отделяют сухожилие последней от сухожилий тонкой и полусухожильной мышц. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Длинная приводящая мышца</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (лат. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Musculus adductor longus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) — плоская, по форме несколько напоминает треугольник, располагается на переднемедиальной поверхности бедра.</t>
+    </r>
+  </si>
+  <si>
+    <t>Длинная приводящая мышца</t>
+  </si>
+  <si>
+    <t>Приводит бедро, принимая участие в его сгибании и вращении кнаружи.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -667,6 +1607,22 @@
     <font>
       <vertAlign val="superscript"/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -808,7 +1764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -829,6 +1785,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1112,8 +2074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1283,7 +2245,7 @@
         <v>15</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O8" s="1"/>
       <c r="Q8" s="4"/>
@@ -1296,10 +2258,10 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -1562,10 +2524,10 @@
         <v>16</v>
       </c>
       <c r="N21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q21" s="4"/>
     </row>
@@ -1600,10 +2562,10 @@
         <v>17</v>
       </c>
       <c r="N22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q22" s="4"/>
     </row>
@@ -1636,10 +2598,10 @@
         <v>18</v>
       </c>
       <c r="N23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="Q23" s="4"/>
     </row>
@@ -1888,23 +2850,23 @@
       <c r="I35" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="J35" t="s">
-        <v>81</v>
-      </c>
-      <c r="K35" t="s">
-        <v>82</v>
+      <c r="J35" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N35" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q35" s="4"/>
     </row>
@@ -1925,29 +2887,29 @@
         <v>2</v>
       </c>
       <c r="I36" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="J36" t="s">
+        <v>82</v>
+      </c>
+      <c r="K36" t="s">
         <v>83</v>
-      </c>
-      <c r="J36" t="s">
-        <v>84</v>
-      </c>
-      <c r="K36" t="s">
-        <v>85</v>
       </c>
       <c r="L36">
         <v>2</v>
       </c>
       <c r="M36" t="s">
+        <v>89</v>
+      </c>
+      <c r="N36" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="O36" t="s">
         <v>92</v>
       </c>
-      <c r="N36" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="O36" t="s">
-        <v>95</v>
-      </c>
       <c r="Q36" s="4"/>
     </row>
-    <row r="37" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:17" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D37">
         <v>3</v>
       </c>
@@ -1964,29 +2926,29 @@
         <v>3</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J37" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="K37" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L37">
         <v>3</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N37" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O37" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q37" s="4"/>
     </row>
-    <row r="38" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:17" ht="18" x14ac:dyDescent="0.3">
       <c r="D38">
         <v>4</v>
       </c>
@@ -1996,8 +2958,15 @@
       <c r="H38">
         <v>4</v>
       </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="1"/>
+      <c r="I38" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="J38" t="s">
+        <v>105</v>
+      </c>
+      <c r="K38" t="s">
+        <v>108</v>
+      </c>
       <c r="L38">
         <v>4</v>
       </c>
@@ -2006,7 +2975,7 @@
       <c r="O38" s="13"/>
       <c r="Q38" s="4"/>
     </row>
-    <row r="39" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:17" ht="18" x14ac:dyDescent="0.3">
       <c r="D39">
         <v>5</v>
       </c>
@@ -2016,8 +2985,12 @@
       <c r="H39">
         <v>5</v>
       </c>
-      <c r="J39" s="3"/>
-      <c r="K39" s="1"/>
+      <c r="I39" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="J39" t="s">
+        <v>106</v>
+      </c>
       <c r="L39">
         <v>5</v>
       </c>
@@ -2026,7 +2999,7 @@
       <c r="O39" s="1"/>
       <c r="Q39" s="4"/>
     </row>
-    <row r="40" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:17" ht="18" x14ac:dyDescent="0.3">
       <c r="D40">
         <v>6</v>
       </c>
@@ -2036,7 +3009,12 @@
       <c r="H40">
         <v>6</v>
       </c>
-      <c r="J40" s="3"/>
+      <c r="I40" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="J40" t="s">
+        <v>111</v>
+      </c>
       <c r="K40" s="1"/>
       <c r="L40">
         <v>6</v>
@@ -2046,7 +3024,7 @@
       <c r="O40" s="1"/>
       <c r="Q40" s="4"/>
     </row>
-    <row r="41" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:17" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D41">
         <v>7</v>
       </c>
@@ -2056,8 +3034,15 @@
       <c r="H41">
         <v>7</v>
       </c>
-      <c r="J41" s="3"/>
-      <c r="K41" s="1"/>
+      <c r="I41" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K41" t="s">
+        <v>113</v>
+      </c>
       <c r="L41">
         <v>7</v>
       </c>
@@ -2066,7 +3051,7 @@
       <c r="O41" s="1"/>
       <c r="Q41" s="4"/>
     </row>
-    <row r="42" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D42">
         <v>8</v>
       </c>
@@ -2076,8 +3061,15 @@
       <c r="H42">
         <v>8</v>
       </c>
-      <c r="J42" s="3"/>
-      <c r="K42" s="1"/>
+      <c r="I42" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>117</v>
+      </c>
       <c r="L42">
         <v>8</v>
       </c>
@@ -2455,8 +3447,10 @@
     <hyperlink ref="M37" r:id="rId29" tooltip="Подошвенная мышца" display="http://sportwiki.to/%D0%9F%D0%BE%D0%B4%D0%BE%D1%88%D0%B2%D0%B5%D0%BD%D0%BD%D0%B0%D1%8F_%D0%BC%D1%8B%D1%88%D1%86%D0%B0" xr:uid="{EE18C17B-00D0-4BA5-8509-D8B7FC494E31}"/>
     <hyperlink ref="N37" r:id="rId30" tooltip="Подошвенная мышца" display="http://sportwiki.to/%D0%9F%D0%BE%D0%B4%D0%BE%D1%88%D0%B2%D0%B5%D0%BD%D0%BD%D0%B0%D1%8F_%D0%BC%D1%8B%D1%88%D1%86%D0%B0" xr:uid="{6C2F05B9-031A-4E53-BE3C-9427C8FFDEB9}"/>
     <hyperlink ref="N8" r:id="rId31" tooltip="Анатомия шейного отдела позвоночника" display="http://sportwiki.to/%D0%90%D0%BD%D0%B0%D1%82%D0%BE%D0%BC%D0%B8%D1%8F_%D1%88%D0%B5%D0%B9%D0%BD%D0%BE%D0%B3%D0%BE_%D0%BE%D1%82%D0%B4%D0%B5%D0%BB%D0%B0_%D0%BF%D0%BE%D0%B7%D0%B2%D0%BE%D0%BD%D0%BE%D1%87%D0%BD%D0%B8%D0%BA%D0%B0" xr:uid="{23A2B226-B0D1-4652-96C0-D7DE88E29259}"/>
+    <hyperlink ref="K35" r:id="rId32" tooltip="Большая ягодичная мышца" display="https://ru.wikipedia.org/wiki/%D0%91%D0%BE%D0%BB%D1%8C%D1%88%D0%B0%D1%8F_%D1%8F%D0%B3%D0%BE%D0%B4%D0%B8%D1%87%D0%BD%D0%B0%D1%8F_%D0%BC%D1%8B%D1%88%D1%86%D0%B0" xr:uid="{3D9C0C58-E58D-4D5D-A831-6ACCD1C4A221}"/>
+    <hyperlink ref="K42" r:id="rId33" tooltip="Бедро" display="https://ru.wikipedia.org/wiki/%D0%91%D0%B5%D0%B4%D1%80%D0%BE" xr:uid="{DEACA39C-19B0-43F6-8C2E-404CBB0A5A45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId32"/>
+  <pageSetup orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>